--- a/Result/result_image.xlsx
+++ b/Result/result_image.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,6 +545,831 @@
         <v>92.13</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>23/12/2023 23:19:37</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>../Test/angry.jpg</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>78.11%</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21.82%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.03%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Angry</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>78.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>23/12/2023 23:19:57</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>../Test/disgust.jpg</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Fear</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>23/12/2023 23:20:14</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>../Test/happy.jpg</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>11.7%</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.73%</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>19.74%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.34%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.67%</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>58.57%</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Surprise</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>58.57</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>23/12/2023 23:20:35</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>../Test/neutral.jpg</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.04%</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.03%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.05%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0.04%</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>99.43%</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Surprise</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>99.43000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>23/12/2023 23:20:54</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>../Test/sad.jpg</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Surprise</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>23/12/2023 23:21:09</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>../Test/surprise.jpg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0.09%</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>97.9%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0.03%</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Happy</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>97.90000000000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>23/12/2023 23:21:22</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>../Test/test7.jpg</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.98%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Fear</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>99.98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>23/12/2023 23:21:32</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>../Test/test8.jpg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0.06%</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.92%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Fear</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>99.92</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>23/12/2023 23:21:42</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>../Test/test9.jpg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0.51%</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.48%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Fear</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>99.48</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>23/12/2023 23:25:21</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>../Test/angry.jpg</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3.53%</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.22%</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.54%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.42%</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>25.09%</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>7.07%</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>48.11%</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Surprise</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>48.11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>23/12/2023 23:25:31</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>../Test/disgust.jpg</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3.28%</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.51%</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0.57%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.67%</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>29.49%</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>6.65%</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>43.94%</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Surprise</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>43.94</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>24/12/2023 00:51:11</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>../Test/angry.jpg</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>99.79%</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.17%</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.04%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Angry</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>99.79000000000001</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>24/12/2023 00:51:25</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>../Test/angry.jpg</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>99.79%</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.17%</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.04%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Angry</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>99.79000000000001</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>24/12/2023 00:51:46</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>../Test/disgust.jpg</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>99.99%</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Disgust</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>99.98999999999999</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>24/12/2023 00:51:56</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>../Test/happy.jpg</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0.05%</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.56%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>92.13%</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.06%</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>7.19%</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Happy</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>92.13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
